--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,64 +52,70 @@
     <t>poor</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>junk</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>junk</t>
+    <t>water</t>
+  </si>
+  <si>
+    <t>smaller</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>okay</t>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>pay</t>
   </si>
   <si>
     <t>paint</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>bad</t>
+    <t>di</t>
   </si>
   <si>
     <t>difficult</t>
@@ -118,10 +124,13 @@
     <t>thought</t>
   </si>
   <si>
+    <t>size</t>
+  </si>
+  <si>
     <t>bit</t>
   </si>
   <si>
-    <t>size</t>
+    <t>hard</t>
   </si>
   <si>
     <t>though</t>
@@ -130,16 +139,16 @@
     <t>item</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>would</t>
   </si>
   <si>
+    <t>back</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>back</t>
+    <t>price</t>
   </si>
   <si>
     <t>better</t>
@@ -148,57 +157,51 @@
     <t>work</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>5</t>
+    <t>box</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>one</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -220,40 +223,40 @@
     <t>great</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>learn</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>enjoy</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>game</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>family</t>
   </si>
   <si>
     <t>play</t>
@@ -617,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,10 +628,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -686,13 +689,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -704,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -757,16 +760,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K4">
-        <v>0.8888888888888888</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L4">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="M4">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -778,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -807,16 +810,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K5">
-        <v>0.8615384615384616</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -828,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -836,13 +839,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7464788732394366</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C6">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -854,19 +857,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K6">
-        <v>0.8279569892473119</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="L6">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M6">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -878,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -886,13 +889,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.703125</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="D7">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -904,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K7">
-        <v>0.765625</v>
+        <v>0.78125</v>
       </c>
       <c r="L7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -928,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -936,13 +939,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6720430107526881</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="C8">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -954,19 +957,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K8">
-        <v>0.6415094339622641</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -978,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -986,13 +989,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.631578947368421</v>
+        <v>0.671875</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1004,19 +1007,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K9">
-        <v>0.569583931133429</v>
+        <v>0.5581061692969871</v>
       </c>
       <c r="L9">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="M9">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1028,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1036,13 +1039,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6310679611650486</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="C10">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="D10">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1054,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K10">
-        <v>0.5507246376811594</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="L10">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M10">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1078,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1086,13 +1089,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6181818181818182</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1104,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K11">
-        <v>0.4854771784232365</v>
+        <v>0.487551867219917</v>
       </c>
       <c r="L11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1128,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1136,13 +1139,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6041666666666666</v>
+        <v>0.6283783783783784</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1154,19 +1157,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K12">
-        <v>0.4540983606557377</v>
+        <v>0.45</v>
       </c>
       <c r="L12">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="M12">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1178,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1186,13 +1189,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5952380952380952</v>
+        <v>0.616504854368932</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1204,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K13">
-        <v>0.363914373088685</v>
+        <v>0.3493975903614458</v>
       </c>
       <c r="L13">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="M13">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1228,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>208</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1236,13 +1239,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5878378378378378</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C14">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1254,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K14">
-        <v>0.3554216867469879</v>
+        <v>0.3486238532110092</v>
       </c>
       <c r="L14">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="M14">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1278,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>107</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1286,13 +1289,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5546218487394958</v>
+        <v>0.5630252100840336</v>
       </c>
       <c r="C15">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D15">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1304,19 +1307,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K15">
-        <v>0.3166666666666667</v>
+        <v>0.325</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1328,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1336,13 +1339,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5101449275362319</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="C16">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1354,19 +1357,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K16">
-        <v>0.291005291005291</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L16">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M16">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1378,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1386,13 +1389,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4814814814814815</v>
+        <v>0.5101449275362319</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="D17">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1404,19 +1407,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K17">
-        <v>0.1875</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L17">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1428,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1436,13 +1439,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4444444444444444</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1454,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K18">
-        <v>0.1726907630522088</v>
+        <v>0.1953125</v>
       </c>
       <c r="L18">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1478,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>206</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1486,13 +1489,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4285714285714285</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1504,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K19">
-        <v>0.1608391608391608</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="L19">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M19">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1528,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>120</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1536,13 +1539,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4210526315789473</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="C20">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1554,19 +1557,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K20">
-        <v>0.1559139784946237</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1578,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1586,13 +1589,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4015748031496063</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C21">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D21">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1604,31 +1607,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K21">
-        <v>0.1482456140350877</v>
+        <v>0.1446099912357581</v>
       </c>
       <c r="L21">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M21">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="N21">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>971</v>
+        <v>976</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1636,13 +1639,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3981042654028436</v>
+        <v>0.4173228346456693</v>
       </c>
       <c r="C22">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D22">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1654,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K22">
-        <v>0.07852044127190136</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="L22">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1678,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1420</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1686,13 +1689,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3734939759036144</v>
+        <v>0.3855421686746988</v>
       </c>
       <c r="C23">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1704,19 +1707,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K23">
-        <v>0.07754010695187166</v>
+        <v>0.07520891364902507</v>
       </c>
       <c r="L23">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1728,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1736,13 +1739,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3666666666666666</v>
+        <v>0.3828125</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1754,31 +1757,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K24">
-        <v>0.07262569832402235</v>
+        <v>0.07342430149447693</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="M24">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="N24">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O24">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>332</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1786,13 +1789,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.359375</v>
+        <v>0.3744075829383886</v>
       </c>
       <c r="C25">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="D25">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1804,31 +1807,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K25">
-        <v>0.04394141145139813</v>
+        <v>0.04539385847797063</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N25">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="O25">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1836,13 +1839,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3283582089552239</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1854,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1862,13 +1865,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.303370786516854</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1880,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1888,13 +1891,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2722772277227723</v>
+        <v>0.34375</v>
       </c>
       <c r="C28">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1906,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>147</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1914,13 +1917,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2448979591836735</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C29">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1932,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1940,13 +1943,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2319587628865979</v>
+        <v>0.2574257425742574</v>
       </c>
       <c r="C30">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D30">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1958,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1966,13 +1969,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1965811965811966</v>
+        <v>0.2422680412371134</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D31">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1984,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>94</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1992,13 +1995,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.177536231884058</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="C32">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D32">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2010,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>227</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2018,13 +2021,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.17</v>
+        <v>0.215</v>
       </c>
       <c r="C33">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D33">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2036,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2044,25 +2047,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1679049034175334</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C34">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="D34">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="E34">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>560</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2070,13 +2073,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1645569620253164</v>
+        <v>0.1847826086956522</v>
       </c>
       <c r="C35">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2088,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>264</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2096,25 +2099,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1642857142857143</v>
+        <v>0.1693907875185736</v>
       </c>
       <c r="C36">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="D36">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>117</v>
+        <v>559</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2122,13 +2125,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1635514018691589</v>
+        <v>0.1642857142857143</v>
       </c>
       <c r="C37">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D37">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2140,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>179</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2148,13 +2151,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1455696202531646</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="C38">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D38">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2166,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2174,25 +2177,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1401273885350318</v>
+        <v>0.1556195965417868</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D39">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>135</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2200,25 +2203,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.138328530259366</v>
+        <v>0.1542056074766355</v>
       </c>
       <c r="C40">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D40">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E40">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>299</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2226,13 +2229,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.13215859030837</v>
+        <v>0.1424050632911392</v>
       </c>
       <c r="C41">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D41">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2244,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>394</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2252,13 +2255,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1314285714285714</v>
+        <v>0.1299559471365639</v>
       </c>
       <c r="C42">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="D42">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2270,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>152</v>
+        <v>395</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2278,25 +2281,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1229946524064171</v>
+        <v>0.1257142857142857</v>
       </c>
       <c r="C43">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D43">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E43">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2304,25 +2307,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1133603238866397</v>
+        <v>0.1256544502617801</v>
       </c>
       <c r="C44">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D44">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E44">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>219</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2330,13 +2333,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.09041095890410959</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="C45">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D45">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2348,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2356,25 +2359,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0898876404494382</v>
+        <v>0.1093117408906883</v>
       </c>
       <c r="C46">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D46">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>243</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2382,25 +2385,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07107438016528926</v>
+        <v>0.1048689138576779</v>
       </c>
       <c r="C47">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D47">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E47">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>562</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2408,25 +2411,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0623608017817372</v>
+        <v>0.07589285714285714</v>
       </c>
       <c r="C48">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D48">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2434,25 +2437,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.06197183098591549</v>
+        <v>0.07062146892655367</v>
       </c>
       <c r="C49">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D49">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2460,25 +2463,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04754601226993865</v>
+        <v>0.066006600660066</v>
       </c>
       <c r="C50">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D50">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E50">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="F50">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>621</v>
+        <v>566</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2486,25 +2489,51 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.04430379746835443</v>
+        <v>0.04949238578680203</v>
       </c>
       <c r="C51">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D51">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E51">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="F51">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>755</v>
+        <v>749</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.04447852760736196</v>
+      </c>
+      <c r="C52">
+        <v>29</v>
+      </c>
+      <c r="D52">
+        <v>32</v>
+      </c>
+      <c r="E52">
+        <v>0.09</v>
+      </c>
+      <c r="F52">
+        <v>0.91</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>623</v>
       </c>
     </row>
   </sheetData>
